--- a/Finance/基金投资明细.xlsx
+++ b/Finance/基金投资明细.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9C49E-65D3-47F0-A7AD-381FFB7B7772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D852A381-FB6D-4274-918E-E5B20A5C571C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="851" activeTab="5" xr2:uid="{0F695191-2C68-48A5-BEAB-53D46C0986A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="851" activeTab="2" xr2:uid="{0F695191-2C68-48A5-BEAB-53D46C0986A1}"/>
   </bookViews>
   <sheets>
     <sheet name="易方达上证50指数增强C" sheetId="5" r:id="rId1"/>
     <sheet name="鹏华沪深300指数增强A" sheetId="7" r:id="rId2"/>
     <sheet name="招商中证白酒指数C" sheetId="6" r:id="rId3"/>
     <sheet name="上证50ETF易方达" sheetId="1" r:id="rId4"/>
-    <sheet name="标普红利ETF" sheetId="8" r:id="rId5"/>
-    <sheet name="旅游ETF" sheetId="9" r:id="rId6"/>
-    <sheet name="大成纳斯达克100ETF(QDII)" sheetId="4" r:id="rId7"/>
-    <sheet name="易方达蓝筹精选混合" sheetId="2" r:id="rId8"/>
-    <sheet name="人工智能ETF" sheetId="10" r:id="rId9"/>
+    <sheet name="旅游ETF" sheetId="9" r:id="rId5"/>
+    <sheet name="易方达蓝筹精选混合" sheetId="2" r:id="rId6"/>
+    <sheet name="人工智能ETF" sheetId="10" r:id="rId7"/>
+    <sheet name="A50指数" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,10 +102,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>卖出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>净值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -116,10 +111,6 @@
   </si>
   <si>
     <t>成交价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入（认购）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -135,16 +126,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>卖出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清仓</t>
+    <t>买入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>买入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入（认购）</t>
+  </si>
+  <si>
+    <t>卖出</t>
   </si>
 </sst>
 </file>
@@ -152,14 +144,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -167,14 +159,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -183,7 +175,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -191,7 +183,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -199,7 +191,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -207,17 +199,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,11 +235,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -256,10 +248,10 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -268,7 +260,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -277,28 +269,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -308,12 +297,12 @@
   <dxfs count="10">
     <dxf>
       <font>
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -441,7 +430,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -571,7 +560,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="307890144"/>
@@ -630,7 +619,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1325909952"/>
@@ -671,7 +660,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -754,7 +743,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -887,7 +876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="307873280"/>
@@ -946,7 +935,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="47431408"/>
@@ -987,7 +976,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2492,17 +2481,17 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.4140625" style="1" customWidth="1"/>
-    <col min="2" max="6" width="12.4140625" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="43.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2518,11 +2507,11 @@
       <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14" customHeight="1">
       <c r="A2" s="1">
         <v>45232</v>
       </c>
@@ -2540,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>45239</v>
       </c>
@@ -2559,7 +2548,7 @@
         <v>2.3895558922950588E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>45246</v>
       </c>
@@ -2578,7 +2567,7 @@
         <v>-9.5582235691805684E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>45253</v>
       </c>
@@ -2597,7 +2586,7 @@
         <v>-7.2852313789485423E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>45260</v>
       </c>
@@ -2616,7 +2605,7 @@
         <v>-1.4337335353770797E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>45267</v>
       </c>
@@ -2635,7 +2624,7 @@
         <v>-5.2337102226366783E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>45274</v>
       </c>
@@ -2654,7 +2643,7 @@
         <v>-7.0462757897190809E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>45295</v>
       </c>
@@ -2673,7 +2662,7 @@
         <v>-4.5576407506702443E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>45309</v>
       </c>
@@ -2692,7 +2681,7 @@
         <v>-6.0263433966662783E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>45323</v>
       </c>
@@ -2711,7 +2700,7 @@
         <v>-4.5867816761860358E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>45330</v>
       </c>
@@ -2730,7 +2719,7 @@
         <v>-4.8373936356218561E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>45344</v>
       </c>
@@ -2764,13 +2753,13 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.4140625" style="1" customWidth="1"/>
-    <col min="2" max="7" width="12.4140625" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="43.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2791,7 +2780,7 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>45225</v>
       </c>
@@ -2809,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>45232</v>
       </c>
@@ -2828,7 +2817,7 @@
         <v>3.6434502626674359E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>45239</v>
       </c>
@@ -2847,7 +2836,7 @@
         <v>1.0591425182172598E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>45246</v>
       </c>
@@ -2866,7 +2855,7 @@
         <v>2.2877478393494854E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>45253</v>
       </c>
@@ -2885,7 +2874,7 @@
         <v>1.3557024233181725E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>45260</v>
       </c>
@@ -2904,7 +2893,7 @@
         <v>-1.3980681240467696E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>45267</v>
       </c>
@@ -2923,7 +2912,7 @@
         <v>-3.3299440772750266E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>45274</v>
       </c>
@@ -2942,7 +2931,7 @@
         <v>-4.3551940349093266E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>45295</v>
       </c>
@@ -2961,7 +2950,7 @@
         <v>-3.6095577020843872E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>45309</v>
       </c>
@@ -2980,7 +2969,7 @@
         <v>-5.3041857312319918E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>45323</v>
       </c>
@@ -2999,7 +2988,7 @@
         <v>-5.0076258261311568E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>45330</v>
       </c>
@@ -3018,7 +3007,7 @@
         <v>-1.4997458057956159E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>45344</v>
       </c>
@@ -3046,383 +3035,457 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2CCAAF-F1F6-46E2-96B6-7D6EB4EA26E4}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.4140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.4140625" customWidth="1"/>
-    <col min="4" max="5" width="12.4140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.4140625" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="43.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>45155</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
         <v>800</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.1033999999999999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <f>C2/C$2-1</f>
+      <c r="F2" s="2">
+        <f>D2/D$2-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>45162</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
         <v>800</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.0896999999999999</v>
       </c>
-      <c r="D3" s="2">
-        <f>C3/C2-1</f>
+      <c r="E3" s="2">
+        <f>D3/D2-1</f>
         <v>-1.2416168207359135E-2</v>
       </c>
-      <c r="E3" s="2">
-        <f>C3/C$2-1</f>
+      <c r="F3" s="2">
+        <f>D3/D$2-1</f>
         <v>-1.2416168207359135E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>45169</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
         <v>800</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.0925</v>
       </c>
-      <c r="D4" s="2">
-        <f>C4/C3-1</f>
+      <c r="E4" s="2">
+        <f>D4/D3-1</f>
         <v>2.5695145452877544E-3</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E19" si="0">C4/C$2-1</f>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F19" si="0">D4/D$2-1</f>
         <v>-9.8785571868768018E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>45190</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>400</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.069</v>
       </c>
-      <c r="D5" s="2">
-        <f>C5/C4-1</f>
+      <c r="E5" s="2">
+        <f>D5/D4-1</f>
         <v>-2.1510297482837615E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>-3.1176363965923493E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>45197</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
         <v>400</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.0568</v>
       </c>
-      <c r="D6" s="2">
-        <f>C6/C5-1</f>
+      <c r="E6" s="2">
+        <f>D6/D5-1</f>
         <v>-1.1412535079513564E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>-4.2233097698024302E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>45211</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
         <v>480</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.0427</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:D17" si="1">C7/C6-1</f>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7:E17" si="1">D7/D6-1</f>
         <v>-1.3342165026495101E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>-5.5011781765452183E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>45218</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
         <v>560</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.97230000000000005</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>-6.7517023113071728E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>-0.11881457313757471</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>45225</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
         <v>840</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.0105999999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>3.9391134423531815E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>-8.4103679535979747E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>45232</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
         <v>600</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.0441</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>3.3148624579457886E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>-5.3742976255211072E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>45239</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
         <v>2600</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.0441</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>-5.3742976255211072E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>45245</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
         <v>1000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.0296000000000001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>-1.3887558662963317E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>-6.6884176182707922E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>45246</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
         <v>600</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.0193000000000001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>-1.0003885003884938E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>-7.6218959579481438E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>45253</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
         <v>600</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.0328999999999999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>1.334248994407905E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>-6.3893420337139739E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>45260</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
         <v>600</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.0088999999999999</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>-2.3235550392099902E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>-8.5644371941272501E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>45267</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>480</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.95589999999999997</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>-5.2532461096243321E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>-0.13367772340039874</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>45271</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
         <v>200</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.94589999999999996</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>-1.0461345329009331E-2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>-0.14274061990212072</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>45274</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
         <v>540</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.90329999999999999</v>
       </c>
-      <c r="D18" s="2">
-        <f>C18/C17-1</f>
+      <c r="E18" s="2">
+        <f>D18/D17-1</f>
         <v>-4.5036473200126825E-2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>-0.18134855899945623</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>45299</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
         <v>800</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.87360000000000004</v>
       </c>
-      <c r="D19" s="2">
-        <f>C19/C18-1</f>
+      <c r="E19" s="2">
+        <f>D19/D18-1</f>
         <v>-3.287944204583193E-2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>-0.20826536160957032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="卖出">
+      <formula>NOT(ISERROR(SEARCH("卖出",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="买入">
+      <formula>NOT(ISERROR(SEARCH("买入",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3433,18 +3496,18 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.4140625" customWidth="1"/>
+    <col min="1" max="2" width="13.36328125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="6" width="13.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="29">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3452,20 +3515,20 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>45036</v>
       </c>
@@ -3489,7 +3552,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>45190</v>
       </c>
@@ -3515,7 +3578,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>45218</v>
       </c>
@@ -3537,7 +3600,7 @@
         <v>-7.6696165191740495E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>45218</v>
       </c>
@@ -3560,7 +3623,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>45232</v>
       </c>
@@ -3582,17 +3645,17 @@
         <v>-7.8171091445427776E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>45247</v>
       </c>
@@ -3614,7 +3677,7 @@
         <v>-0.12831858407079655</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>45247</v>
       </c>
@@ -3637,7 +3700,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>45258</v>
       </c>
@@ -3659,7 +3722,7 @@
         <v>-0.1379056047197641</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>45265</v>
       </c>
@@ -3681,7 +3744,7 @@
         <v>-0.15855457227138647</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>45273</v>
       </c>
@@ -3721,23 +3784,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6A1C7C-8F7E-4341-ABD3-59A3F81001AE}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A99956-CB2E-403D-9CC9-85766E49AF81}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="6" width="13.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="29">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3745,35 +3808,36 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
-        <v>45283</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>20</v>
+        <v>45184</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D2">
-        <v>30000</v>
+        <v>9400</v>
       </c>
       <c r="E2" s="2">
+        <f>C2/C2-1</f>
         <v>0</v>
       </c>
       <c r="F2" s="2">
@@ -3781,117 +3845,158 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
-        <v>44937</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>16</v>
+        <v>45212</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>1.02</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="D3">
-        <v>15000</v>
+        <v>400</v>
       </c>
       <c r="E3" s="2">
         <f>C3/C2-1</f>
-        <v>2.0000000000000018E-2</v>
+        <v>-0.1039719626168224</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F7" si="0">C3/C$2-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F3:F9" si="0">C3/C$2-1</f>
+        <v>-0.1039719626168224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
-        <v>45313</v>
+        <v>45322</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>0.96399999999999997</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="E4" s="2">
         <f>C4/C3-1</f>
-        <v>-5.4901960784313752E-2</v>
+        <v>-0.12385919165580184</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>-3.6000000000000032E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-0.2149532710280373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
-        <v>45316</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>16</v>
+        <v>45330</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>1.0169999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="D5">
         <v>2000</v>
       </c>
       <c r="E5" s="2">
         <f>C5/C4-1</f>
-        <v>5.4979253112033222E-2</v>
+        <v>3.7202380952380709E-2</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>1.6999999999999904E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-0.18574766355140193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
-        <v>45316</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>16</v>
+        <v>45355</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>1.02</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="D6">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E6" s="2">
         <f>C6/C5-1</f>
-        <v>2.9498525073747839E-3</v>
+        <v>1.1477761836441891E-2</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-0.17640186915887857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
-        <v>45352</v>
+        <v>45359</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>1.075</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="D7">
-        <v>13000</v>
+        <v>1300</v>
       </c>
       <c r="E7" s="2">
         <f>C7/C6-1</f>
-        <v>5.3921568627451011E-2</v>
+        <v>-1.4184397163120588E-2</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>7.4999999999999956E-2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
+        <v>-0.1880841121495328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>45373</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="D8">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E9" si="1">C8/C7-1</f>
+        <v>4.1726618705036023E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.15420560747663548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>45377</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.3480662983425438E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.1740654205607477</v>
       </c>
     </row>
   </sheetData>
@@ -3909,187 +4014,98 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A99956-CB2E-403D-9CC9-85766E49AF81}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8E288E-82E0-44C3-80D9-35532F2570B7}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>45184</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="D2">
-        <v>9400</v>
-      </c>
-      <c r="E2" s="2">
-        <f>C2/C2-1</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <f>C2/C$2-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>45212</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="D3">
-        <v>400</v>
-      </c>
-      <c r="E3" s="2">
-        <f>C3/C2-1</f>
-        <v>-0.1039719626168224</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F6" si="0">C3/C$2-1</f>
-        <v>-0.1039719626168224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>45322</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="2">
-        <f>C4/C3-1</f>
-        <v>-0.12385919165580184</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.2149532710280373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>45330</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="D5">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="2">
-        <f>C5/C4-1</f>
-        <v>3.7202380952380709E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.18574766355140193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>45355</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="D6">
-        <v>1700</v>
-      </c>
-      <c r="E6" s="2">
-        <f>C6/C5-1</f>
-        <v>1.1477761836441891E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.17640186915887857</v>
-      </c>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2867.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1.9363999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1.8468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-4.6300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2.0331999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="买入">
-      <formula>NOT(ISERROR(SEARCH("买入",B1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="卖出">
-      <formula>NOT(ISERROR(SEARCH("卖出",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29793C5F-820E-4FE8-9EAE-D8690932B6A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE81772-8BE2-4A76-AA0B-4421FE561AEC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="6" width="13.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="29">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4097,33 +4113,33 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
-        <v>45274</v>
+        <v>45355</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1.014</v>
+        <v>0.83979999999999999</v>
       </c>
       <c r="D2">
-        <v>9800</v>
+        <v>14000</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -4132,70 +4148,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
-        <v>45294</v>
+        <v>45377</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>1.008</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="D3">
-        <v>5000</v>
+        <v>900</v>
       </c>
       <c r="E3" s="2">
         <f>C3/C2-1</f>
-        <v>-5.9171597633136397E-3</v>
+        <v>-2.9530840676351588E-2</v>
       </c>
       <c r="F3" s="2">
         <f>C3/C$2-1</f>
-        <v>-5.9171597633136397E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-2.9530840676351588E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
-        <v>45309</v>
+        <v>45378</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>1.026</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="D4">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="E4" s="2">
-        <f>C4/C3-1</f>
-        <v>1.7857142857142794E-2</v>
+        <f t="shared" ref="E4:E5" si="0">C4/C3-1</f>
+        <v>-3.4355828220858808E-2</v>
       </c>
       <c r="F4" s="2">
-        <f>C4/C$2-1</f>
-        <v>1.1834319526627279E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F4:F5" si="1">C4/C$2-1</f>
+        <v>-6.2872112407716063E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
-        <v>45352</v>
+        <v>45378</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>1.101</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="D5">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="E5" s="2">
-        <f>C5/C4-1</f>
-        <v>7.309941520467822E-2</v>
+        <f t="shared" si="0"/>
+        <v>-6.3532401524777349E-3</v>
       </c>
       <c r="F5" s="2">
-        <f>C5/C$2-1</f>
-        <v>8.579881656804722E-2</v>
+        <f t="shared" si="1"/>
+        <v>-6.8825910931174072E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4213,98 +4229,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8E288E-82E0-44C3-80D9-35532F2570B7}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="18"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>2867.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1.9363999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1.8468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-4.6300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>2.0331999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE81772-8BE2-4A76-AA0B-4421FE561AEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6965622A-0D26-4F2E-A83C-CD87E0A2F65A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="7" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="29">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4312,33 +4249,33 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
-        <v>45355</v>
+        <v>45352</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>0.83979999999999999</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -4348,8 +4285,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B2">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="卖出">
       <formula>NOT(ISERROR(SEARCH("卖出",B1)))</formula>
     </cfRule>

--- a/Finance/基金投资明细.xlsx
+++ b/Finance/基金投资明细.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB405E-8CC2-453A-BFE5-22FE02D346CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C905AC4-23BB-42AC-A230-13997A264F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="851" activeTab="2" xr2:uid="{0F695191-2C68-48A5-BEAB-53D46C0986A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="851" activeTab="4" xr2:uid="{0F695191-2C68-48A5-BEAB-53D46C0986A1}"/>
   </bookViews>
   <sheets>
     <sheet name="上证50ETF易方达" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1489,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE81772-8BE2-4A76-AA0B-4421FE561AEC}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2735,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DDFD43-C7BA-4CB9-934A-E9A7F032CD57}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2836,28 +2836,170 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4">
-        <v>45498</v>
+        <v>45497</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.91400000000000003</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E5" s="2">
-        <f>C5/C4-1</f>
-        <v>-2.972399150743088E-2</v>
+        <f t="shared" ref="E5:E9" si="0">C5/C4-1</f>
+        <v>-6.3694267515922443E-3</v>
       </c>
       <c r="F5" s="2">
         <f>C5/C$2-1</f>
+        <v>-6.3999999999999946E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>45498</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.3504273504273532E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <f>C6/C$2-1</f>
         <v>-8.5999999999999965E-2</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>45499</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.7505470459518668E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f>C7/C$2-1</f>
+        <v>-0.10199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>45503</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.3407572383074013E-3</v>
+      </c>
+      <c r="F8" s="2">
+        <f>C8/C$2-1</f>
+        <v>-0.10499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>45503</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D9">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2346368715084886E-3</v>
+      </c>
+      <c r="F9" s="2">
+        <f>C9/C$2-1</f>
+        <v>-0.10299999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B5">
+  <conditionalFormatting sqref="B1:B9">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="卖出">
       <formula>NOT(ISERROR(SEARCH("卖出",B1)))</formula>
     </cfRule>

--- a/Finance/基金投资明细.xlsx
+++ b/Finance/基金投资明细.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12533\Desktop\Articles\Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51812A3-AB59-466E-9FF0-A6047E9CDC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B0004B-C3CA-43B3-826E-E09CB1898702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="851" activeTab="2" xr2:uid="{0F695191-2C68-48A5-BEAB-53D46C0986A1}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="851" xr2:uid="{0F695191-2C68-48A5-BEAB-53D46C0986A1}"/>
   </bookViews>
   <sheets>
     <sheet name="红利ETF港股" sheetId="14" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,20 +103,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -125,7 +125,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -133,7 +133,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,7 +142,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,16 +173,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -191,13 +191,13 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,16 +547,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DDFD43-C7BA-4CB9-934A-E9A7F032CD57}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C22:C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="13.36328125" customWidth="1"/>
+    <col min="1" max="7" width="13.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29">
+    <row r="1" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45482</v>
       </c>
@@ -596,11 +596,11 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F14" si="0">C2/C$2-1</f>
+        <f t="shared" ref="F2:F15" si="0">C2/C$2-1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45489</v>
       </c>
@@ -622,7 +622,7 @@
         <v>-2.7000000000000024E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45490</v>
       </c>
@@ -644,7 +644,7 @@
         <v>-5.8000000000000052E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>45497</v>
       </c>
@@ -658,7 +658,7 @@
         <v>300</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E14" si="1">C5/C4-1</f>
+        <f t="shared" ref="E5:E15" si="1">C5/C4-1</f>
         <v>-6.3694267515922443E-3</v>
       </c>
       <c r="F5" s="2">
@@ -666,7 +666,7 @@
         <v>-6.3999999999999946E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45498</v>
       </c>
@@ -688,7 +688,7 @@
         <v>-8.5999999999999965E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45499</v>
       </c>
@@ -710,7 +710,7 @@
         <v>-0.10199999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45503</v>
       </c>
@@ -732,7 +732,7 @@
         <v>-0.10499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45503</v>
       </c>
@@ -754,7 +754,7 @@
         <v>-0.10299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45559</v>
       </c>
@@ -776,7 +776,7 @@
         <v>-0.10999999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45561</v>
       </c>
@@ -798,7 +798,7 @@
         <v>-0.10399999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45581</v>
       </c>
@@ -820,7 +820,7 @@
         <v>-7.0999999999999952E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45588</v>
       </c>
@@ -842,7 +842,7 @@
         <v>-7.0999999999999952E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45594</v>
       </c>
@@ -864,47 +864,67 @@
         <v>-9.4999999999999973E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>45604</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D15">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.1049723756906049E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.10499999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B14">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B15">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="卖出">
       <formula>NOT(ISERROR(SEARCH("卖出",B1)))</formula>
     </cfRule>
@@ -924,16 +944,16 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.35546875" style="7" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5">
+    <row r="1" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -956,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45155</v>
       </c>
@@ -977,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45162</v>
       </c>
@@ -999,7 +1019,7 @@
         <v>-1.2416168207359135E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45169</v>
       </c>
@@ -1021,7 +1041,7 @@
         <v>-9.8785571868768018E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45190</v>
       </c>
@@ -1043,7 +1063,7 @@
         <v>-3.1176363965923493E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45197</v>
       </c>
@@ -1065,7 +1085,7 @@
         <v>-4.2233097698024302E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45211</v>
       </c>
@@ -1087,7 +1107,7 @@
         <v>-5.5011781765452183E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45218</v>
       </c>
@@ -1109,7 +1129,7 @@
         <v>-0.11881457313757471</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45225</v>
       </c>
@@ -1131,7 +1151,7 @@
         <v>-8.4103679535979747E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45232</v>
       </c>
@@ -1153,7 +1173,7 @@
         <v>-5.3742976255211072E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45239</v>
       </c>
@@ -1175,7 +1195,7 @@
         <v>-5.3742976255211072E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45245</v>
       </c>
@@ -1197,7 +1217,7 @@
         <v>-6.6884176182707922E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45246</v>
       </c>
@@ -1219,7 +1239,7 @@
         <v>-7.6218959579481438E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45253</v>
       </c>
@@ -1241,7 +1261,7 @@
         <v>-6.3893420337139739E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45260</v>
       </c>
@@ -1263,7 +1283,7 @@
         <v>-8.5644371941272501E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45267</v>
       </c>
@@ -1285,7 +1305,7 @@
         <v>-0.13367772340039874</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45271</v>
       </c>
@@ -1307,7 +1327,7 @@
         <v>-0.14274061990212072</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45274</v>
       </c>
@@ -1329,7 +1349,7 @@
         <v>-0.18134855899945623</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45299</v>
       </c>
@@ -1351,7 +1371,7 @@
         <v>-0.20826536160957032</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45378</v>
       </c>
@@ -1373,7 +1393,7 @@
         <v>-0.13857168751132853</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45400</v>
       </c>
@@ -1395,7 +1415,7 @@
         <v>-0.16838861700199381</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45407</v>
       </c>
@@ -1417,7 +1437,7 @@
         <v>-0.15270980605401485</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45418</v>
       </c>
@@ -1439,7 +1459,7 @@
         <v>-0.10268261736450968</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45421</v>
       </c>
@@ -1461,7 +1481,7 @@
         <v>-0.10802972630052565</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45460</v>
       </c>
@@ -1483,7 +1503,7 @@
         <v>-0.21352184158056908</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45478</v>
       </c>
@@ -1505,7 +1525,7 @@
         <v>-0.2870219322095342</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45582</v>
       </c>
@@ -1527,7 +1547,7 @@
         <v>-0.2723400398767446</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45586</v>
       </c>
@@ -1568,20 +1588,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E2436A-ADC6-4FCA-B6A2-5E40BAB57E87}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.35546875" style="7" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5">
+    <row r="1" spans="1:7" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45573</v>
       </c>
@@ -1625,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45575</v>
       </c>
@@ -1647,7 +1667,7 @@
         <v>-7.876230661040784E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45579</v>
       </c>
@@ -1669,7 +1689,7 @@
         <v>-0.13080168776371304</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45594</v>
       </c>
@@ -1691,7 +1711,7 @@
         <v>-0.1026722925457102</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45603</v>
       </c>
@@ -1714,6 +1734,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="卖出">
       <formula>NOT(ISERROR(SEARCH("卖出",B1)))</formula>
